--- a/map_mode.xlsx
+++ b/map_mode.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="79">
   <si>
     <t>f</t>
   </si>
@@ -249,6 +249,21 @@
   </si>
   <si>
     <t>次のマッチを選択</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>上にカーソルを追加</t>
+  </si>
+  <si>
+    <t>下にカーソルを追加</t>
+  </si>
+  <si>
+    <t>全マッチを選択</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -428,53 +443,11 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="1">
     <dxf>
       <font>
         <strike val="0"/>
         <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -755,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,6 +1216,9 @@
       <c r="M14" s="21"/>
       <c r="O14" s="21"/>
       <c r="Q14" s="21"/>
+      <c r="R14" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1538,194 +1514,185 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="15" t="s">
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="Q25" s="21"/>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="Q27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="16">
-        <v>1</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="15" t="s">
+      <c r="C28" s="16">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
-      <c r="Q26" s="21"/>
-      <c r="S26" s="21"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13" t="s">
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="23"/>
+      <c r="Q28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13" t="s">
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="23"/>
-      <c r="Q29" s="21"/>
-      <c r="S29" s="21"/>
-    </row>
-    <row r="30" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="23"/>
-      <c r="Q30" s="21"/>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="23"/>
-      <c r="Q31" s="21"/>
-      <c r="S31" s="21"/>
+      <c r="K31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
@@ -1741,10 +1708,10 @@
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
       <c r="I32" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
@@ -1768,10 +1735,10 @@
       <c r="G33" s="18"/>
       <c r="H33" s="19"/>
       <c r="I33" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
@@ -1795,10 +1762,10 @@
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
       <c r="I34" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
@@ -1822,14 +1789,16 @@
       <c r="G35" s="18"/>
       <c r="H35" s="19"/>
       <c r="I35" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="O35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
       <c r="Q35" s="21"/>
       <c r="S35" s="21"/>
     </row>
@@ -1847,14 +1816,16 @@
       <c r="G36" s="18"/>
       <c r="H36" s="19"/>
       <c r="I36" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="O36" s="21"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
       <c r="Q36" s="21"/>
       <c r="S36" s="21"/>
     </row>
@@ -1872,14 +1843,16 @@
       <c r="G37" s="18"/>
       <c r="H37" s="19"/>
       <c r="I37" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="O37" s="21"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
       <c r="Q37" s="21"/>
       <c r="S37" s="21"/>
     </row>
@@ -1897,10 +1870,10 @@
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
       <c r="I38" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" s="21"/>
       <c r="M38" s="21"/>
@@ -1922,14 +1895,12 @@
       <c r="G39" s="18"/>
       <c r="H39" s="19"/>
       <c r="I39" s="15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K39" s="21"/>
       <c r="M39" s="21"/>
       <c r="O39" s="21"/>
       <c r="Q39" s="21"/>
@@ -1949,14 +1920,12 @@
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
       <c r="I40" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K40" s="21"/>
       <c r="M40" s="21"/>
       <c r="O40" s="21"/>
       <c r="Q40" s="21"/>
@@ -1976,14 +1945,12 @@
       <c r="G41" s="18"/>
       <c r="H41" s="19"/>
       <c r="I41" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K41" s="21"/>
       <c r="M41" s="21"/>
       <c r="O41" s="21"/>
       <c r="Q41" s="21"/>
@@ -2003,10 +1970,10 @@
       <c r="G42" s="18"/>
       <c r="H42" s="19"/>
       <c r="I42" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>2</v>
@@ -2030,10 +1997,10 @@
       <c r="G43" s="18"/>
       <c r="H43" s="19"/>
       <c r="I43" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>2</v>
@@ -2045,11 +2012,9 @@
     </row>
     <row r="44" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B44" s="15"/>
       <c r="C44" s="16">
         <v>1</v>
       </c>
@@ -2059,13 +2024,13 @@
       <c r="G44" s="18"/>
       <c r="H44" s="19"/>
       <c r="I44" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M44" s="21"/>
       <c r="O44" s="21"/>
@@ -2074,11 +2039,9 @@
     </row>
     <row r="45" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B45" s="15"/>
       <c r="C45" s="16">
         <v>1</v>
       </c>
@@ -2088,13 +2051,13 @@
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
       <c r="I45" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M45" s="21"/>
       <c r="O45" s="21"/>
@@ -2114,14 +2077,14 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="15">
-        <v>0</v>
-      </c>
-      <c r="J46" s="20">
-        <v>0</v>
+      <c r="I46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M46" s="21"/>
       <c r="O46" s="21"/>
@@ -2130,9 +2093,11 @@
     </row>
     <row r="47" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="C47" s="16">
         <v>1</v>
       </c>
@@ -2141,14 +2106,14 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="15">
-        <v>1</v>
-      </c>
-      <c r="J47" s="20">
-        <v>1</v>
+      <c r="I47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="M47" s="21"/>
       <c r="O47" s="21"/>
@@ -2157,9 +2122,11 @@
     </row>
     <row r="48" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="C48" s="16">
         <v>1</v>
       </c>
@@ -2168,16 +2135,15 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="15">
-        <v>2</v>
-      </c>
-      <c r="J48" s="14">
-        <v>2</v>
+      <c r="I48" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L48" s="20"/>
+        <v>50</v>
+      </c>
       <c r="M48" s="21"/>
       <c r="O48" s="21"/>
       <c r="Q48" s="21"/>
@@ -2197,70 +2163,101 @@
       <c r="G49" s="18"/>
       <c r="H49" s="19"/>
       <c r="I49" s="15">
-        <v>3</v>
-      </c>
-      <c r="J49" s="14">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J49" s="20">
+        <v>0</v>
       </c>
       <c r="K49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L49" s="20"/>
       <c r="M49" s="21"/>
       <c r="O49" s="21"/>
       <c r="Q49" s="21"/>
       <c r="S49" s="21"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="I50" s="13">
-        <v>4</v>
-      </c>
-      <c r="J50" s="5">
-        <v>4</v>
-      </c>
-      <c r="K50" s="7" t="s">
+    <row r="50" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16">
+        <v>1</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="15">
+        <v>1</v>
+      </c>
+      <c r="J50" s="20">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="I51" s="13">
-        <v>5</v>
-      </c>
-      <c r="J51" s="5">
-        <v>5</v>
-      </c>
-      <c r="K51" s="7" t="s">
+      <c r="M50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="S50" s="21"/>
+    </row>
+    <row r="51" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16">
+        <v>1</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="15">
+        <v>2</v>
+      </c>
+      <c r="J51" s="14">
+        <v>2</v>
+      </c>
+      <c r="K51" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="I52" s="13">
-        <v>6</v>
-      </c>
-      <c r="J52" s="5">
-        <v>6</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="L51" s="20"/>
+      <c r="M51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="S51" s="21"/>
+    </row>
+    <row r="52" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16">
+        <v>1</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="15">
+        <v>3</v>
+      </c>
+      <c r="J52" s="14">
+        <v>3</v>
+      </c>
+      <c r="K52" s="21" t="s">
         <v>51</v>
       </c>
+      <c r="L52" s="20"/>
+      <c r="M52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="S52" s="21"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -2270,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J53" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>51</v>
@@ -2287,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="I54" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J54" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>51</v>
@@ -2304,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="I55" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J55" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>51</v>
@@ -2315,22 +2312,78 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="I56" s="13">
+        <v>7</v>
+      </c>
+      <c r="J56" s="5">
+        <v>7</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="I57" s="13">
+        <v>8</v>
+      </c>
+      <c r="J57" s="5">
+        <v>8</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="I58" s="13">
+        <v>9</v>
+      </c>
+      <c r="J58" s="5">
+        <v>9</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="I56" s="13" t="s">
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K59" s="7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M60" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/map_mode.xlsx
+++ b/map_mode.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="80">
   <si>
     <t>f</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>reset</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +373,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +442,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,1661 +767,1809 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="9" customWidth="1"/>
-    <col min="5" max="7" width="6.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="7.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="7.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="9" customWidth="1"/>
+    <col min="6" max="8" width="6.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="7" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18"/>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="K3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17"/>
       <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="L4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15" t="s">
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="K5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18"/>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18"/>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="15" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="21"/>
+      <c r="M8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="21"/>
+      <c r="Q8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="21"/>
+      <c r="S8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="21"/>
-    </row>
-    <row r="9" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="21"/>
+      <c r="M9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="21"/>
-    </row>
-    <row r="10" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="S10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="L11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
-      <c r="Q11" s="21"/>
-      <c r="S11" s="21"/>
-    </row>
-    <row r="12" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23"/>
+      <c r="R11" s="21"/>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="K12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="L12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="Q12" s="21"/>
-      <c r="S12" s="21"/>
-    </row>
-    <row r="13" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="R12" s="21"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="L13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="21"/>
-      <c r="S13" s="21"/>
-    </row>
-    <row r="14" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="21"/>
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="K14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="14" t="s">
+      <c r="L14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="S14" s="21"/>
-    </row>
-    <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="S15" s="21"/>
-    </row>
-    <row r="16" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-      <c r="F16" s="18"/>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="K16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="L16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18"/>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="L17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="S17" s="21"/>
-    </row>
-    <row r="18" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="K18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="L18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="M18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="S18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="K19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="L19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="M19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="Q19" s="21"/>
-      <c r="S19" s="21"/>
-    </row>
-    <row r="20" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="15" t="s">
+      <c r="N19" s="23"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+      <c r="R19" s="21"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="M20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="21"/>
-      <c r="S20" s="21"/>
-    </row>
-    <row r="21" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="15" t="s">
+      <c r="L20" s="31"/>
+      <c r="N20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="31"/>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29">
+        <v>1</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="M21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="21"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="31"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="15" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="L22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="21"/>
-      <c r="S22" s="21"/>
-    </row>
-    <row r="23" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="21"/>
+      <c r="T22" s="21"/>
+    </row>
+    <row r="23" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="15" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="L23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="S23" s="21"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13" t="s">
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13" t="s">
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="16">
-        <v>1</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="15" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="K27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="L27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
-      <c r="Q27" s="21"/>
-      <c r="S27" s="21"/>
-    </row>
-    <row r="28" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="R27" s="21"/>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="16">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="15" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="K28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="L28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="23"/>
-      <c r="Q28" s="21"/>
-      <c r="S28" s="21"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="R28" s="21"/>
+      <c r="T28" s="21"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13" t="s">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-      <c r="I30" s="13" t="s">
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="K30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="13" t="s">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="K31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15"/>
-      <c r="C32" s="16">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="15" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="K32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="23"/>
-      <c r="Q32" s="21"/>
-      <c r="S32" s="21"/>
-    </row>
-    <row r="33" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="23"/>
+      <c r="R32" s="21"/>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="16">
-        <v>1</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="16">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="15" t="s">
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="K33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="23"/>
-      <c r="Q33" s="21"/>
-      <c r="S33" s="21"/>
-    </row>
-    <row r="34" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="R33" s="21"/>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="15"/>
-      <c r="C34" s="16">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="16">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="15" t="s">
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="K34" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="23"/>
-      <c r="Q34" s="21"/>
-      <c r="S34" s="21"/>
-    </row>
-    <row r="35" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
+      <c r="R34" s="21"/>
+      <c r="T34" s="21"/>
+    </row>
+    <row r="35" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="16">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="K35" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
-      <c r="Q35" s="21"/>
-      <c r="S35" s="21"/>
-    </row>
-    <row r="36" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+      <c r="R35" s="21"/>
+      <c r="T35" s="21"/>
+    </row>
+    <row r="36" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="15"/>
-      <c r="C36" s="16">
-        <v>1</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="16">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="15" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="K36" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="23"/>
-      <c r="Q36" s="21"/>
-      <c r="S36" s="21"/>
-    </row>
-    <row r="37" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="23"/>
+      <c r="R36" s="21"/>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="16">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="15" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="23"/>
-      <c r="Q37" s="21"/>
-      <c r="S37" s="21"/>
-    </row>
-    <row r="38" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
+      <c r="R37" s="21"/>
+      <c r="T37" s="21"/>
+    </row>
+    <row r="38" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="15"/>
-      <c r="C38" s="16">
-        <v>1</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="15" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="K38" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="S38" s="21"/>
-    </row>
-    <row r="39" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="T38" s="21"/>
+    </row>
+    <row r="39" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="15"/>
-      <c r="C39" s="16">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="C39" s="18">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="15" t="s">
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="K39" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="S39" s="21"/>
-    </row>
-    <row r="40" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="T39" s="21"/>
+    </row>
+    <row r="40" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="15"/>
-      <c r="C40" s="16">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="C40" s="18">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="15" t="s">
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="K40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="S40" s="21"/>
-    </row>
-    <row r="41" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="T40" s="21"/>
+    </row>
+    <row r="41" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="15"/>
-      <c r="C41" s="16">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="C41" s="18">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="15" t="s">
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="K41" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="S41" s="21"/>
-    </row>
-    <row r="42" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="T41" s="21"/>
+    </row>
+    <row r="42" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="C42" s="18">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="15" t="s">
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="K42" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="L42" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="S42" s="21"/>
-    </row>
-    <row r="43" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="T42" s="21"/>
+    </row>
+    <row r="43" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="16">
-        <v>1</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="C43" s="18">
+        <v>1</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1</v>
+      </c>
+      <c r="E43" s="17"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="15" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="K43" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K43" s="21" t="s">
+      <c r="L43" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="S43" s="21"/>
-    </row>
-    <row r="44" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="T43" s="21"/>
+    </row>
+    <row r="44" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="16">
-        <v>1</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
+      <c r="C44" s="18">
+        <v>1</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="17"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="15" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="K44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="L44" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="S44" s="21"/>
-    </row>
-    <row r="45" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="T44" s="21"/>
+    </row>
+    <row r="45" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="15"/>
-      <c r="C45" s="16">
-        <v>1</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="C45" s="18">
+        <v>1</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="15" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="K45" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K45" s="21" t="s">
+      <c r="L45" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="S45" s="21"/>
-    </row>
-    <row r="46" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="T45" s="21"/>
+    </row>
+    <row r="46" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="15"/>
-      <c r="C46" s="16">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="C46" s="18">
+        <v>1</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="15" t="s">
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="K46" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="21" t="s">
+      <c r="L46" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="S46" s="21"/>
-    </row>
-    <row r="47" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="T46" s="21"/>
+    </row>
+    <row r="47" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="16">
-        <v>1</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1</v>
+      </c>
+      <c r="E47" s="17"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="15" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="K47" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="L47" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="S47" s="21"/>
-    </row>
-    <row r="48" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="T47" s="21"/>
+    </row>
+    <row r="48" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="16">
-        <v>1</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
+      <c r="C48" s="18">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="15" t="s">
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="K48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="L48" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="S48" s="21"/>
-    </row>
-    <row r="49" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="T48" s="21"/>
+    </row>
+    <row r="49" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="15"/>
-      <c r="C49" s="16">
-        <v>1</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
+      <c r="C49" s="18">
+        <v>1</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1</v>
+      </c>
+      <c r="E49" s="17"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="15">
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="15">
         <v>0</v>
       </c>
-      <c r="J49" s="20">
+      <c r="K49" s="20">
         <v>0</v>
       </c>
-      <c r="K49" s="21" t="s">
+      <c r="L49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="S49" s="21"/>
-    </row>
-    <row r="50" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="T49" s="21"/>
+    </row>
+    <row r="50" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="15"/>
-      <c r="C50" s="16">
-        <v>1</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="C50" s="18">
+        <v>1</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="15">
-        <v>1</v>
-      </c>
-      <c r="J50" s="20">
-        <v>1</v>
-      </c>
-      <c r="K50" s="21" t="s">
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="15">
+        <v>1</v>
+      </c>
+      <c r="K50" s="20">
+        <v>1</v>
+      </c>
+      <c r="L50" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="S50" s="21"/>
-    </row>
-    <row r="51" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="T50" s="21"/>
+    </row>
+    <row r="51" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="15"/>
-      <c r="C51" s="16">
-        <v>1</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
+      <c r="C51" s="18">
+        <v>1</v>
+      </c>
+      <c r="D51" s="16">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="15">
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="15">
         <v>2</v>
       </c>
-      <c r="J51" s="14">
+      <c r="K51" s="14">
         <v>2</v>
       </c>
-      <c r="K51" s="21" t="s">
+      <c r="L51" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="S51" s="21"/>
-    </row>
-    <row r="52" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="20"/>
+      <c r="N51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="T51" s="21"/>
+    </row>
+    <row r="52" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="15"/>
-      <c r="C52" s="16">
-        <v>1</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
+      <c r="C52" s="18">
+        <v>1</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="15">
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="15">
         <v>3</v>
       </c>
-      <c r="J52" s="14">
+      <c r="K52" s="14">
         <v>3</v>
       </c>
-      <c r="K52" s="21" t="s">
+      <c r="L52" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L52" s="20"/>
-      <c r="M52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="S52" s="21"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M52" s="20"/>
+      <c r="N52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="T52" s="21"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="8">
-        <v>1</v>
-      </c>
-      <c r="I53" s="13">
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="J53" s="13">
         <v>4</v>
       </c>
-      <c r="J53" s="5">
+      <c r="K53" s="5">
         <v>4</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="I54" s="13">
+      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="J54" s="13">
         <v>5</v>
       </c>
-      <c r="J54" s="5">
+      <c r="K54" s="5">
         <v>5</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="I55" s="13">
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="J55" s="13">
         <v>6</v>
       </c>
-      <c r="J55" s="5">
+      <c r="K55" s="5">
         <v>6</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="I56" s="13">
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="J56" s="13">
         <v>7</v>
       </c>
-      <c r="J56" s="5">
+      <c r="K56" s="5">
         <v>7</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="I57" s="13">
+      <c r="C57" s="10">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="13">
         <v>8</v>
       </c>
-      <c r="J57" s="5">
+      <c r="K57" s="5">
         <v>8</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="8">
-        <v>1</v>
-      </c>
-      <c r="I58" s="13">
+      <c r="C58" s="10">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="J58" s="13">
         <v>9</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>9</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="I59" s="13" t="s">
+      <c r="C59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="J59" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="K59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M60" s="7" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N60" s="7" t="s">
         <v>74</v>
       </c>
     </row>
